--- a/FitnessData/dynamic13/pso/analysis_2s.xlsx
+++ b/FitnessData/dynamic13/pso/analysis_2s.xlsx
@@ -552,144 +552,144 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>174.13</v>
+        <v>163.82</v>
       </c>
       <c r="B2" t="n">
-        <v>188.9</v>
+        <v>186.44</v>
       </c>
       <c r="C2" t="n">
-        <v>201.22</v>
+        <v>182.86</v>
       </c>
       <c r="D2" t="n">
-        <v>210.02</v>
+        <v>183.14</v>
       </c>
       <c r="E2" t="n">
-        <v>222.71</v>
+        <v>175.28</v>
       </c>
       <c r="F2" t="n">
-        <v>171.29</v>
+        <v>186.26</v>
       </c>
       <c r="G2" t="n">
-        <v>189.38</v>
+        <v>192.08</v>
       </c>
       <c r="H2" t="n">
-        <v>190.67</v>
+        <v>194.24</v>
       </c>
       <c r="I2" t="n">
-        <v>191.93</v>
+        <v>175.74</v>
       </c>
       <c r="J2" t="n">
-        <v>197.44</v>
+        <v>189.25</v>
       </c>
       <c r="K2" t="n">
-        <v>214.79</v>
+        <v>211.93</v>
       </c>
       <c r="L2" t="n">
-        <v>185.59</v>
+        <v>194.1</v>
       </c>
       <c r="M2" t="n">
-        <v>196.25</v>
+        <v>177.81</v>
       </c>
       <c r="N2" t="n">
-        <v>188.01</v>
+        <v>168.59</v>
       </c>
       <c r="O2" t="n">
-        <v>188.51</v>
+        <v>189.49</v>
       </c>
       <c r="P2" t="n">
-        <v>195.79</v>
+        <v>191.28</v>
       </c>
       <c r="Q2" t="n">
-        <v>193.26</v>
+        <v>188.98</v>
       </c>
       <c r="R2" t="n">
-        <v>199.13</v>
+        <v>166.99</v>
       </c>
       <c r="S2" t="n">
-        <v>193.21</v>
+        <v>183.57</v>
       </c>
       <c r="T2" t="n">
-        <v>174.31</v>
+        <v>183.21</v>
       </c>
       <c r="U2" t="n">
-        <v>171.29</v>
+        <v>163.82</v>
       </c>
       <c r="V2" t="n">
-        <v>193.3270000000001</v>
+        <v>184.253</v>
       </c>
       <c r="W2" t="n">
-        <v>12.77646030380625</v>
+        <v>11.0429597005227</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>512.11</v>
+        <v>465.16</v>
       </c>
       <c r="B3" t="n">
-        <v>518.36</v>
+        <v>479.93</v>
       </c>
       <c r="C3" t="n">
-        <v>524.97</v>
+        <v>418.65</v>
       </c>
       <c r="D3" t="n">
-        <v>515.61</v>
+        <v>430.97</v>
       </c>
       <c r="E3" t="n">
-        <v>484.24</v>
+        <v>457.27</v>
       </c>
       <c r="F3" t="n">
-        <v>491.56</v>
+        <v>491.98</v>
       </c>
       <c r="G3" t="n">
-        <v>497.58</v>
+        <v>439.84</v>
       </c>
       <c r="H3" t="n">
-        <v>518.52</v>
+        <v>469.33</v>
       </c>
       <c r="I3" t="n">
-        <v>423.68</v>
+        <v>434.41</v>
       </c>
       <c r="J3" t="n">
-        <v>495.19</v>
+        <v>469.64</v>
       </c>
       <c r="K3" t="n">
-        <v>517.9400000000001</v>
+        <v>437.04</v>
       </c>
       <c r="L3" t="n">
-        <v>429.24</v>
+        <v>459.1</v>
       </c>
       <c r="M3" t="n">
-        <v>495.82</v>
+        <v>443.7</v>
       </c>
       <c r="N3" t="n">
-        <v>505.3</v>
+        <v>452.72</v>
       </c>
       <c r="O3" t="n">
-        <v>467.64</v>
+        <v>455.97</v>
       </c>
       <c r="P3" t="n">
-        <v>452.48</v>
+        <v>406.65</v>
       </c>
       <c r="Q3" t="n">
-        <v>485.84</v>
+        <v>456.24</v>
       </c>
       <c r="R3" t="n">
-        <v>520.08</v>
+        <v>463.58</v>
       </c>
       <c r="S3" t="n">
-        <v>499.92</v>
+        <v>437.96</v>
       </c>
       <c r="T3" t="n">
-        <v>473.69</v>
+        <v>435.75</v>
       </c>
       <c r="U3" t="n">
-        <v>423.68</v>
+        <v>406.65</v>
       </c>
       <c r="V3" t="n">
-        <v>491.4885</v>
+        <v>450.2945</v>
       </c>
       <c r="W3" t="n">
-        <v>29.37415320615979</v>
+        <v>20.74124583250029</v>
       </c>
     </row>
   </sheetData>
